--- a/BackTest/2020-01-12 BackTest FNB.xlsx
+++ b/BackTest/2020-01-12 BackTest FNB.xlsx
@@ -801,17 +801,13 @@
         <v>2.942483333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.83</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -840,104 +836,94 @@
         <v>2.939950000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="F14" t="n">
+        <v>214.5509</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.93795</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="F15" t="n">
+        <v>53515.775</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.935666666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="F14" t="n">
-        <v>214.5509</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.93795</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="F15" t="n">
-        <v>53515.775</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.935666666666667</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -971,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.87</v>
+        <v>2.862</v>
       </c>
       <c r="K16" t="n">
-        <v>2.862</v>
+        <v>2.849</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1014,55 +1000,53 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K17" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>2.87</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.930066666666667</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2400</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.930066666666667</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1090,16 +1074,14 @@
         <v>2.929416666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2.959</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>2.91</v>
+        <v>2.87</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1133,22 +1115,14 @@
         <v>2.928733333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -2191,17 +2165,13 @@
         <v>2.895166666666666</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.897</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
@@ -2230,22 +2200,14 @@
         <v>2.894566666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2279,14 +2241,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2276,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2311,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2346,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2443,14 +2381,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2416,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2525,14 +2451,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2566,14 +2486,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2607,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2648,14 +2556,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2689,14 +2591,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2626,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2661,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2812,14 +2696,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2853,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2894,14 +2766,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2801,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2976,14 +2836,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3017,14 +2871,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3058,14 +2906,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3099,14 +2941,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3140,14 +2976,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3181,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3222,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3081,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3304,14 +3116,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +3151,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3386,14 +3186,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3427,14 +3221,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3462,22 +3250,14 @@
         <v>2.899299999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3505,22 +3285,14 @@
         <v>2.898299999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K82" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3554,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3589,22 +3355,14 @@
         <v>2.895949999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K84" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3632,22 +3390,14 @@
         <v>2.895449999999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K85" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3675,22 +3425,14 @@
         <v>2.894949999999999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3718,22 +3460,14 @@
         <v>2.894449999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K87" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3761,22 +3495,14 @@
         <v>2.893949999999999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3530,14 @@
         <v>2.893449999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K89" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3847,22 +3565,14 @@
         <v>2.892949999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3890,22 +3600,14 @@
         <v>2.892916666666665</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K91" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +3635,14 @@
         <v>2.892899999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>2.899</v>
-      </c>
-      <c r="K92" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3976,22 +3670,14 @@
         <v>2.893149999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>2.899</v>
-      </c>
-      <c r="K93" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4019,22 +3705,14 @@
         <v>2.893349999999999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="K94" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3746,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4109,14 +3781,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4150,14 +3816,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4191,14 +3851,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4273,14 +3921,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4314,14 +3956,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4355,14 +3991,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4396,14 +4026,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4437,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4478,14 +4096,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4519,14 +4131,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4560,14 +4166,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4601,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4236,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4683,14 +4271,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4724,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4765,14 +4341,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4806,14 +4376,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4411,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4446,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4967,17 +4513,11 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4551,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5049,19 +4583,13 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2.897</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>1.012259233690024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -5125,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest FNB.xlsx
+++ b/BackTest/2020-01-12 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-8098209.3688</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9098209.368799999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9098041.368799999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10189132.249</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-11116873.1102</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11115682.7197</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-11106513.5535</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11113900.8759</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11112886.8759</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11162758.4475</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11162492.0986</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11701802.6876</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-14944995.0975</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-15765079.1134</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-15534856.9521</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-17727983.6266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-29314695.7416</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-29314695.7416</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3685,10 +3685,14 @@
         <v>-30633747.89</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.89</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3721,8 +3725,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3764,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3803,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3839,19 @@
         <v>-31168906.3525</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3880,19 @@
         <v>-31118906.3525</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3921,19 @@
         <v>-31213296.7164</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3962,19 @@
         <v>-31406689.9907</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.863</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4003,19 @@
         <v>-31406689.9907</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4044,19 @@
         <v>-31405578.9907</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4085,19 @@
         <v>-31405578.9907</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.897</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4129,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4165,19 @@
         <v>-31153002.6087</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4206,19 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4247,19 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4288,19 @@
         <v>-31273124.3141</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4329,19 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4370,19 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4411,19 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4452,19 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4493,19 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4534,19 @@
         <v>-31425056.14942887</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4575,19 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.895</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4616,19 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4657,19 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4698,19 @@
         <v>-31553373.7966</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.894</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4739,19 @@
         <v>-30956861.26052887</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4783,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4822,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4861,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4900,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4939,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4978,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,15 +5014,17 @@
         <v>-31436344.62222887</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>2.909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+        <v>2.89</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,17 +5053,15 @@
         <v>-31436244.62222887</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>2.891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4856,11 +5096,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4895,7 +5135,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -4934,7 +5174,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -4969,11 +5209,13 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2.869</v>
+      </c>
       <c r="J138" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5008,11 +5250,13 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J139" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5047,13 +5291,13 @@
         <v>-31965697.28792887</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>2.87</v>
       </c>
       <c r="J140" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5088,13 +5332,11 @@
         <v>-32306513.63072887</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>2.899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5129,11 +5371,13 @@
         <v>-32513807.30452887</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J142" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5168,13 +5412,13 @@
         <v>-32513807.30452887</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>2.87</v>
       </c>
       <c r="J143" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5209,13 +5453,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>2.87</v>
       </c>
       <c r="J144" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5250,13 +5494,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>2.88</v>
       </c>
       <c r="J145" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5291,13 +5535,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>2.88</v>
       </c>
       <c r="J146" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5332,13 +5576,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>2.88</v>
       </c>
       <c r="J147" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5373,13 +5617,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>2.88</v>
       </c>
       <c r="J148" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5414,13 +5658,13 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>2.88</v>
       </c>
       <c r="J149" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5455,13 +5699,13 @@
         <v>-31280241.18172887</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>2.88</v>
       </c>
       <c r="J150" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5496,13 +5740,13 @@
         <v>-31279130.18172887</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>2.899</v>
       </c>
       <c r="J151" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5537,13 +5781,11 @@
         <v>-30923443.5740669</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5578,13 +5820,11 @@
         <v>-30923620.5740669</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5619,13 +5859,11 @@
         <v>-30923797.5740669</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5660,13 +5898,11 @@
         <v>-30922686.5740669</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>2.907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5701,13 +5937,11 @@
         <v>-30922686.5740669</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>2.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5742,13 +5976,11 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>2.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5783,13 +6015,11 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5824,13 +6054,11 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5865,13 +6093,11 @@
         <v>-30889856.57946689</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -5906,13 +6132,11 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>2.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -5947,13 +6171,11 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -5988,13 +6210,11 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6029,13 +6249,11 @@
         <v>-30939756.62746689</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6070,13 +6288,11 @@
         <v>-30497694.05846689</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6111,13 +6327,11 @@
         <v>-30457424.93366689</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6152,13 +6366,11 @@
         <v>-28975655.12716689</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2.917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6193,13 +6405,11 @@
         <v>-28918256.36816689</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6234,13 +6444,11 @@
         <v>-30026031.1424669</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6279,7 +6487,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6318,7 +6526,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6357,7 +6565,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6396,7 +6604,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6435,7 +6643,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6474,7 +6682,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6513,7 +6721,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6552,7 +6760,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6591,7 +6799,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6626,19 +6834,19 @@
         <v>-32841435.2619669</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>2.909</v>
+        <v>2.89</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.007719147473359</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6665,11 +6873,17 @@
         <v>-30573169.3967998</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6698,11 +6912,17 @@
         <v>-31085712.8208998</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6731,11 +6951,17 @@
         <v>-30646516.95749979</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6764,11 +6990,17 @@
         <v>-30646516.95749979</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6797,11 +7029,17 @@
         <v>-30646705.07759979</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6830,11 +7068,17 @@
         <v>-30646528.07759979</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6863,11 +7107,17 @@
         <v>-30646528.07759979</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6896,11 +7146,17 @@
         <v>-30653716.67289979</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6929,11 +7185,17 @@
         <v>-30653539.67289979</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6962,11 +7224,17 @@
         <v>-31950232.66819979</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6995,11 +7263,17 @@
         <v>-31679032.98079979</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7031,8 +7305,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7064,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7097,8 +7383,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7130,8 +7422,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7163,8 +7461,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7196,8 +7500,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7229,8 +7539,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7262,8 +7578,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7295,8 +7617,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7328,8 +7656,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7361,8 +7695,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7394,8 +7734,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7427,8 +7773,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7460,8 +7812,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7493,8 +7851,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7526,8 +7890,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7559,8 +7929,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7592,8 +7968,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7625,8 +8007,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7658,8 +8046,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7691,8 +8085,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7724,8 +8124,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7757,8 +8163,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7790,8 +8202,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7823,8 +8241,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7856,8 +8280,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7889,8 +8319,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7922,8 +8358,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7955,8 +8397,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7988,8 +8436,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8021,8 +8475,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8054,8 +8514,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8553,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8120,8 +8592,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8153,8 +8631,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8186,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8219,8 +8709,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8252,8 +8748,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8285,8 +8787,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8318,8 +8826,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8351,8 +8865,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8384,8 +8904,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8417,8 +8943,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8450,8 +8982,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8483,8 +9021,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8516,8 +9060,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8549,8 +9099,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8615,8 +9177,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8648,8 +9216,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8681,8 +9255,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8714,8 +9294,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8747,8 +9333,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8780,8 +9372,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8813,8 +9411,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8846,8 +9450,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8879,8 +9489,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8912,8 +9528,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8945,8 +9567,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8978,8 +9606,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9011,8 +9645,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +9684,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9077,8 +9723,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +9762,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +9801,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +9840,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +9879,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +9918,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9957,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +9996,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +10035,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +10074,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +10113,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +10152,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +10191,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +10230,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +10269,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +10308,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +10347,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +10386,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +10425,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +10464,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +10503,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +10542,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +10581,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +10620,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +10659,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +10698,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +10737,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +10776,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +10815,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +10854,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +10893,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +10932,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +10971,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +11010,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +11049,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +11088,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +11127,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +11166,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +11205,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +11244,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +11283,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +11322,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +11361,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10496,8 +11400,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +11439,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +11478,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +11517,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +11556,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +11595,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +11634,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +11673,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +11712,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +11751,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +11790,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +11829,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +11868,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +11907,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +11946,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +11985,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +12024,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +12063,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +12102,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +12141,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +12180,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +12219,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +12258,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +12297,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +12336,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +12375,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +12414,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +12453,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +12492,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +12531,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +12570,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +12609,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +12648,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +12687,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +12726,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11648,11 +12762,17 @@
         <v>-29491663.33346467</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +12804,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +12840,17 @@
         <v>-29183218.23376467</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +12882,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +12921,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11813,11 +12957,17 @@
         <v>-29468719.83996467</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +12999,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +13038,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +13077,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +13116,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +13155,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +13194,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12044,11 +13230,17 @@
         <v>-32927527.89846466</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +13272,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +13311,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +13350,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +13389,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12209,11 +13425,17 @@
         <v>-33422154.22396467</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +13467,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +13506,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12311,8 +13545,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12344,8 +13584,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12377,8 +13623,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12410,8 +13662,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12443,8 +13701,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12476,8 +13740,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12509,8 +13779,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12542,8 +13818,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13857,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12608,8 +13896,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12641,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12674,8 +13974,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12707,8 +14013,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +14052,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12773,8 +14091,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12806,8 +14130,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12839,8 +14169,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12872,8 +14208,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12905,8 +14247,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12938,8 +14286,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12971,8 +14325,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13004,8 +14364,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13037,8 +14403,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +14442,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +14481,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +14520,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +14559,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +14598,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13235,8 +14637,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13268,8 +14676,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13301,8 +14715,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13334,8 +14754,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13367,8 +14793,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +14832,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +14871,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13466,8 +14910,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +14949,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +14988,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13565,8 +15027,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +15066,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13631,8 +15105,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +15144,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13697,8 +15183,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +15222,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +15261,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +15300,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +15339,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +15378,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +15417,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +15456,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +15495,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +15534,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +15573,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +15612,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +15651,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +15690,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +15729,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +15768,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +15807,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +15846,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +15885,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14321,11 +15921,17 @@
         <v>-32792761.37886466</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14354,11 +15960,17 @@
         <v>-32791298.37886466</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +15999,17 @@
         <v>-32791485.79336466</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14420,11 +16038,17 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14453,11 +16077,17 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14486,11 +16116,17 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +16158,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +16197,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +16236,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +16275,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +16314,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +16353,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14717,11 +16389,17 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14750,11 +16428,17 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14783,11 +16467,17 @@
         <v>-32469397.36416467</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14816,11 +16506,17 @@
         <v>-32475130.36416467</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14849,11 +16545,17 @@
         <v>-32575361.16506467</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +16587,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +16626,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14948,11 +16662,17 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14981,11 +16701,17 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H432" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15014,11 +16740,17 @@
         <v>-30802464.71826467</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15047,11 +16779,17 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15080,11 +16818,17 @@
         <v>-30802120.71826467</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15113,11 +16857,17 @@
         <v>-30801620.71826467</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15146,11 +16896,17 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15179,11 +16935,17 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15212,11 +16974,17 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +17016,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +17055,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +17094,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15347,8 +17133,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +17172,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +17211,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15446,8 +17250,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15476,11 +17286,17 @@
         <v>-30697686.71826467</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15509,11 +17325,17 @@
         <v>-30405702.50956466</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15542,11 +17364,17 @@
         <v>-29784951.32336466</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15575,11 +17403,17 @@
         <v>-29784951.32336466</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +17442,17 @@
         <v>-29784951.32336466</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15641,11 +17481,17 @@
         <v>-29784145.69976467</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15677,8 +17523,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15707,11 +17559,17 @@
         <v>-29787328.11276466</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15743,8 +17601,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15773,11 +17637,17 @@
         <v>-29737831.39726466</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15806,11 +17676,17 @@
         <v>-29737831.39726466</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15839,11 +17715,17 @@
         <v>-29738361.79946466</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15872,11 +17754,17 @@
         <v>-29801649.33406466</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15905,11 +17793,17 @@
         <v>-29801649.33406466</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15938,11 +17832,17 @@
         <v>-29801649.33406466</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15974,8 +17874,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16007,8 +17913,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16040,8 +17952,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +17991,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16106,8 +18030,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +18069,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16172,8 +18108,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +18147,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16235,11 +18183,17 @@
         <v>-30242239.32096466</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +18225,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +18264,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16337,8 +18303,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +18342,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +18381,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16436,8 +18420,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16469,8 +18459,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16502,8 +18498,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16535,8 +18537,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16568,8 +18576,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16601,8 +18615,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16634,8 +18654,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16667,8 +18693,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16700,8 +18732,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16733,8 +18771,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16766,8 +18810,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16799,8 +18849,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16832,8 +18888,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16865,8 +18927,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16898,8 +18966,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16931,8 +19005,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16964,8 +19044,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16997,8 +19083,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17030,8 +19122,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17063,8 +19161,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17096,8 +19200,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +19239,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17162,8 +19278,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +19317,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17228,8 +19356,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17261,8 +19395,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +19434,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17327,8 +19473,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +19512,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17393,8 +19551,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +19590,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +19629,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17492,8 +19668,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +19707,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +19746,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17591,8 +19785,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17624,8 +19824,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17657,8 +19863,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17690,8 +19902,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17723,8 +19941,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17756,8 +19980,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17789,8 +20019,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17822,8 +20058,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17855,8 +20097,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17888,8 +20136,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17921,8 +20175,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17954,8 +20214,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17987,8 +20253,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18020,8 +20292,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18053,8 +20331,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18086,8 +20370,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18119,8 +20409,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18152,8 +20448,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18185,8 +20487,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18218,8 +20526,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18248,11 +20562,17 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18281,11 +20601,17 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18314,11 +20640,17 @@
         <v>-32114361.9255558</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18347,11 +20679,17 @@
         <v>-32113061.9255558</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18380,11 +20718,17 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18413,11 +20757,17 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18449,8 +20799,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18482,8 +20838,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18515,8 +20877,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18548,8 +20916,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18581,8 +20955,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18611,11 +20991,17 @@
         <v>-32166308.7224558</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18644,11 +21030,17 @@
         <v>-32166752.7224558</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18677,11 +21069,17 @@
         <v>-32698958.1591558</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18710,11 +21108,17 @@
         <v>-32024696.1943558</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18746,8 +21150,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18779,8 +21189,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18812,8 +21228,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18845,8 +21267,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18878,8 +21306,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18911,8 +21345,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18944,8 +21384,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18977,8 +21423,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19010,8 +21462,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19043,8 +21501,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19076,8 +21540,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19109,8 +21579,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19142,8 +21618,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19175,8 +21657,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19208,8 +21696,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19241,8 +21735,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19274,8 +21774,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19307,8 +21813,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19340,8 +21852,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19373,8 +21891,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19406,8 +21930,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19439,8 +21969,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19472,8 +22008,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19505,8 +22047,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19538,8 +22086,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19571,8 +22125,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19604,8 +22164,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19637,8 +22203,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19670,8 +22242,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19703,8 +22281,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19736,8 +22320,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19766,11 +22356,17 @@
         <v>-32330802.01994395</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19799,11 +22395,17 @@
         <v>-32681338.97594395</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19835,8 +22437,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19868,8 +22476,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19901,8 +22515,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19934,8 +22554,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19967,8 +22593,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20000,8 +22632,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20033,8 +22671,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20066,8 +22710,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +22749,20 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
       <c r="M587" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest FNB.xlsx
+++ b/BackTest/2020-01-12 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-8098209.3688</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-9098209.368799999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-9098041.368799999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-10189132.249</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-11116873.1102</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-11115682.7197</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-11113900.8759</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-11112886.8759</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11162758.4475</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-11162492.0986</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-11162662.0986</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-11731852.867</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-11701802.6876</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-12070542.7252</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-15553385.4449</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-15765079.1134</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -3949,11 +3949,17 @@
         <v>-31406689.9907</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.862</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +3988,17 @@
         <v>-31405578.9907</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.862</v>
+      </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4031,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4068,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4105,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4138,17 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4177,17 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.908</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4216,17 @@
         <v>-31273124.3141</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.908</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4255,17 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.893</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4294,17 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4337,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4370,15 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4407,17 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4446,17 @@
         <v>-31425056.14942887</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4485,17 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2.895</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4524,17 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>2.894</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4563,17 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.894</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4602,17 @@
         <v>-31553373.7966</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.894</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4641,17 @@
         <v>-30956861.26052887</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.91</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4680,17 @@
         <v>-30956861.26052887</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4719,17 @@
         <v>-31033547.97502887</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4758,17 @@
         <v>-31746309.69262887</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.894</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4801,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4838,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4875,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4912,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4949,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4986,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4877,7 +5023,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4910,7 +5060,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4943,7 +5097,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5130,17 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5169,17 @@
         <v>-31965697.28792887</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5042,7 +5212,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5075,7 +5249,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5282,17 @@
         <v>-32513807.30452887</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>2.87</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5325,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5358,17 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5397,17 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5436,17 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5475,17 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5514,17 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5335,11 +5553,17 @@
         <v>-31280241.18172887</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2.88</v>
+      </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5368,11 +5592,17 @@
         <v>-31279130.18172887</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2.899</v>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5635,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5672,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5709,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5746,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5779,17 @@
         <v>-30922686.5740669</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2.908</v>
+      </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5818,17 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.908</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5857,17 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5896,17 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5935,17 @@
         <v>-30889856.57946689</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5974,17 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.914</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6013,17 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +6052,17 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +6091,17 @@
         <v>-30939756.62746689</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6130,17 @@
         <v>-30497694.05846689</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.912</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +6169,17 @@
         <v>-30457424.93366689</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5896,11 +6208,17 @@
         <v>-28975655.12716689</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2.917</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5929,11 +6247,17 @@
         <v>-28918256.36816689</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2.922</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6286,17 @@
         <v>-30026031.1424669</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2.939</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5999,7 +6329,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6032,7 +6366,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6065,7 +6403,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6098,7 +6440,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6131,7 +6477,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6510,15 @@
         <v>-29542963.89486689</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6197,7 +6551,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6230,7 +6588,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6263,7 +6625,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6296,7 +6662,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6699,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6362,7 +6736,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6773,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6810,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6847,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6884,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6921,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6958,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6995,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +7032,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +7069,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +7106,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +7143,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7180,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7217,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7254,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7291,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7328,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7365,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7402,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7439,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7476,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7513,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7550,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7587,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7624,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7661,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7220,7 +7698,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7253,7 +7735,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7772,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,7 +7809,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7352,7 +7846,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7385,7 +7883,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7920,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7957,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7994,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +8031,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +8068,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +8105,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +8142,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8179,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8216,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8253,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8290,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8327,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7814,7 +8364,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7847,7 +8401,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7880,7 +8438,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8475,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7946,7 +8512,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7979,7 +8549,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8012,7 +8586,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8045,7 +8623,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8660,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8111,7 +8697,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8144,7 +8734,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +8767,17 @@
         <v>-36408257.36417203</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>2.966</v>
+      </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +8810,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8243,7 +8847,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8276,7 +8884,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8309,7 +8921,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8342,7 +8958,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8375,7 +8995,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +9028,17 @@
         <v>-36576106.43927203</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>2.968</v>
+      </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9067,17 @@
         <v>-36575056.76877203</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>2.968</v>
+      </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,11 +9106,17 @@
         <v>-36588425.84097203</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>2.99</v>
+      </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8503,11 +9145,17 @@
         <v>-36588425.84097203</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9184,17 @@
         <v>-36588225.84097203</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8573,7 +9227,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +9264,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +9297,17 @@
         <v>-36607996.68787203</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>2.985</v>
+      </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,11 +9336,17 @@
         <v>-36607796.68787203</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8705,7 +9379,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8738,7 +9416,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +9449,17 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>2.989</v>
+      </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8804,7 +9492,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8833,11 +9525,17 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +9564,17 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,11 +9603,17 @@
         <v>-38515337.41737203</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8936,7 +9646,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8969,7 +9683,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9720,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9035,7 +9757,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9794,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9101,7 +9831,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9864,17 @@
         <v>-40294662.98907203</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9903,17 @@
         <v>-40290662.98907203</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9942,17 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>2.988</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9981,17 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +10020,17 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +10059,17 @@
         <v>-40913439.79097203</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>2.969</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +10098,17 @@
         <v>-40904615.79097203</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +10141,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +10174,17 @@
         <v>-40904697.79097203</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +10213,17 @@
         <v>-40804697.79097203</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>2.978</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +10252,17 @@
         <v>-40805367.13537204</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>2.989</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9497,7 +10295,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9530,7 +10332,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +10365,17 @@
         <v>-40805367.13537204</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +10404,17 @@
         <v>-40973390.62467203</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +10443,17 @@
         <v>-40973567.62467203</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +10482,17 @@
         <v>-40973567.62467203</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>2.961</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10521,17 @@
         <v>-32641615.12487203</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>2.961</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9728,7 +10564,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9761,7 +10601,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9794,7 +10638,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9827,7 +10675,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9860,7 +10712,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9893,7 +10749,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9926,7 +10786,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9959,7 +10823,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9992,7 +10860,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10897,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10058,7 +10934,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10091,7 +10971,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10124,7 +11008,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10157,7 +11045,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10190,7 +11082,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +11119,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10256,7 +11156,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10289,7 +11193,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10322,7 +11230,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10355,7 +11267,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10388,7 +11304,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10421,7 +11341,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10454,7 +11378,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +11415,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +11452,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10553,7 +11489,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10586,7 +11526,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10619,7 +11563,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10652,7 +11600,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10685,7 +11637,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10718,7 +11674,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10751,7 +11711,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10784,7 +11748,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10817,7 +11785,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10850,7 +11822,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10883,7 +11859,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10916,7 +11896,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10949,7 +11933,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10982,7 +11970,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11015,7 +12007,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11048,7 +12044,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11081,7 +12081,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11114,7 +12118,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11147,7 +12155,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +12192,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +12229,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +12266,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +12303,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +12340,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +12377,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +12414,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,14 +12447,16 @@
         <v>-29307771.06706467</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L334" t="inlineStr"/>
       <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
@@ -11440,7 +12482,7 @@
         <v>-29318544.06706467</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +12515,7 @@
         <v>-29468719.83996467</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +12548,7 @@
         <v>-32970788.12726466</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +12581,7 @@
         <v>-32943488.51286466</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11935,11 +12977,17 @@
         <v>-33422581.22396467</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>2.985</v>
+      </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11968,11 +13016,17 @@
         <v>-33363180.53166467</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I351" t="n">
+        <v>2.975</v>
+      </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +13059,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +13096,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +13133,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +13170,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +13207,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +13244,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +13277,17 @@
         <v>-33232277.63196467</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2.966</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +13316,17 @@
         <v>-33231209.32436467</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2.968</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +13355,17 @@
         <v>-33231386.32436467</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +13394,17 @@
         <v>-33231386.32436467</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2.966</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +13433,17 @@
         <v>-33023506.87206467</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>2.966</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +13472,17 @@
         <v>-33023506.87206467</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +13511,17 @@
         <v>-33017982.55376467</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>2.97</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +13554,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +13591,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +13628,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +13665,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +13702,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +13739,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +13772,17 @@
         <v>-33171467.37976467</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2.972</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +13811,17 @@
         <v>-33168967.37976467</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>2.971</v>
+      </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +13854,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +13891,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13928,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13965,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +14002,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +14035,17 @@
         <v>-33180650.07626467</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.971</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +14074,17 @@
         <v>-34044359.23806467</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.966</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +14113,17 @@
         <v>-34041859.23806467</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.939</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +14152,17 @@
         <v>-34040082.23806467</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +14191,17 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.951</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +14230,17 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +14269,17 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +14308,17 @@
         <v>-33939413.29156467</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.957</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +14347,17 @@
         <v>-33937555.46836466</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2.958</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +14386,17 @@
         <v>-33932555.46836466</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2.959</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +14425,17 @@
         <v>-33932732.46836466</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2.965</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +14464,17 @@
         <v>-33932732.46836466</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2.959</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +14503,17 @@
         <v>-33902732.46836466</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2.959</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13293,10 +14547,12 @@
       <c r="I391" t="n">
         <v>2.967</v>
       </c>
-      <c r="J391" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13330,12 +14586,10 @@
       <c r="I392" t="n">
         <v>2.958</v>
       </c>
-      <c r="J392" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L392" t="n">
@@ -13371,12 +14625,10 @@
       <c r="I393" t="n">
         <v>2.958</v>
       </c>
-      <c r="J393" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L393" t="n">
@@ -13412,9 +14664,7 @@
       <c r="I394" t="n">
         <v>2.955</v>
       </c>
-      <c r="J394" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13453,9 +14703,7 @@
       <c r="I395" t="n">
         <v>2.955</v>
       </c>
-      <c r="J395" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13494,9 +14742,7 @@
       <c r="I396" t="n">
         <v>2.956</v>
       </c>
-      <c r="J396" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13530,12 +14776,12 @@
         <v>-33912742.33026467</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13569,12 +14815,12 @@
         <v>-33913992.18076467</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13608,12 +14854,12 @@
         <v>-33899831.27926467</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13647,12 +14893,12 @@
         <v>-33907980.97096466</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13686,12 +14932,12 @@
         <v>-33907803.97096466</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2.959</v>
+      </c>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13725,12 +14971,12 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13764,12 +15010,12 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13803,12 +15049,12 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13842,12 +15088,12 @@
         <v>-33903126.97096466</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13881,12 +15127,12 @@
         <v>-33903303.97096466</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13920,12 +15166,12 @@
         <v>-33902103.97096466</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13959,12 +15205,12 @@
         <v>-33902103.97096466</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13998,12 +15244,12 @@
         <v>-33901926.97096466</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14037,12 +15283,12 @@
         <v>-33671464.64376466</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
         <v>2.967</v>
       </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14076,12 +15322,12 @@
         <v>-32792761.37886466</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14115,12 +15361,12 @@
         <v>-32792761.37886466</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14154,12 +15400,12 @@
         <v>-32791298.37886466</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.992</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14193,12 +15439,12 @@
         <v>-32791485.79336466</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14232,12 +15478,12 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14271,12 +15517,12 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14310,12 +15556,12 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14349,12 +15595,12 @@
         <v>-32982878.97986466</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14388,12 +15634,12 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14427,12 +15673,12 @@
         <v>-32977701.97986466</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,12 +15712,12 @@
         <v>-32947701.97986466</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>2.999</v>
+      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14505,12 +15751,12 @@
         <v>-32944701.97986466</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>3</v>
+      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,12 +15790,12 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14583,20 +15829,16 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="inlineStr"/>
     </row>
     <row r="425">
@@ -14622,17 +15864,11 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14661,17 +15897,11 @@
         <v>-32469397.36416467</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14700,15 +15930,15 @@
         <v>-32475130.36416467</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14739,12 +15969,10 @@
         <v>-32575361.16506467</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14778,12 +16006,12 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14817,12 +16045,12 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14856,12 +16084,12 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14895,12 +16123,12 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14934,12 +16162,12 @@
         <v>-30802464.71826467</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14973,12 +16201,12 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15012,12 +16240,12 @@
         <v>-30802120.71826467</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.995</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15051,12 +16279,10 @@
         <v>-30801620.71826467</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,12 +16316,10 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15129,12 +16353,12 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15171,9 +16395,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15207,12 +16429,12 @@
         <v>-30800686.71826467</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15249,9 +16471,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15288,9 +16508,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15327,9 +16545,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15363,20 +16579,16 @@
         <v>-30800686.71826467</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="inlineStr"/>
     </row>
     <row r="445">
@@ -15405,14 +16617,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15441,17 +16647,15 @@
         <v>-30697686.71826467</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3.006</v>
+      </c>
       <c r="J446" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.006</v>
+      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15480,15 +16684,15 @@
         <v>-30697686.71826467</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>2.967</v>
+        <v>3.006</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L447" t="n">
@@ -15523,11 +16727,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>2.967</v>
+        <v>3.006</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L448" t="n">
@@ -15561,14 +16765,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15600,14 +16798,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15636,17 +16828,11 @@
         <v>-29784951.32336466</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15675,17 +16861,11 @@
         <v>-29784145.69976467</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15714,17 +16894,11 @@
         <v>-29784145.69976467</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15753,17 +16927,11 @@
         <v>-29787328.11276466</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15795,14 +16963,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15834,14 +16996,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15870,17 +17026,11 @@
         <v>-29737831.39726466</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15909,17 +17059,11 @@
         <v>-29738361.79946466</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15951,14 +17095,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15990,14 +17128,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16029,14 +17161,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16068,14 +17194,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16107,14 +17227,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16146,14 +17260,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16185,14 +17293,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16224,14 +17326,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16263,14 +17359,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16299,15 +17389,15 @@
         <v>-30222017.32096466</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L468" t="n">
@@ -16338,12 +17428,12 @@
         <v>-30222017.32096466</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16377,12 +17467,12 @@
         <v>-30242239.32096466</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.983</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16416,12 +17506,12 @@
         <v>-30303429.88816466</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2.976</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16455,12 +17545,12 @@
         <v>-30364773.05586466</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.975</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16494,12 +17584,12 @@
         <v>-30364773.05586466</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16533,12 +17623,12 @@
         <v>-30395040.05586466</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16572,12 +17662,12 @@
         <v>-30386055.68446466</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16611,12 +17701,12 @@
         <v>-30433366.68446466</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.982</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16653,9 +17743,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16692,9 +17780,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16731,9 +17817,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16767,12 +17851,12 @@
         <v>-30491369.81226466</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16806,12 +17890,12 @@
         <v>-30512309.14896466</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16845,12 +17929,12 @@
         <v>-30512309.14896466</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
         <v>2.967</v>
       </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16884,12 +17968,12 @@
         <v>-30578594.32486466</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
         <v>2.967</v>
       </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,12 +18007,12 @@
         <v>-30578594.32486466</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16962,12 +18046,12 @@
         <v>-30529534.98706466</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17001,12 +18085,12 @@
         <v>-30514680.98706466</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
         <v>2.967</v>
       </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17040,12 +18124,12 @@
         <v>-30515180.98706466</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17079,12 +18163,12 @@
         <v>-31001269.69996466</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17118,12 +18202,12 @@
         <v>-30945197.13476466</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>2.952</v>
+      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17157,12 +18241,12 @@
         <v>-30941697.13476466</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>2.953</v>
+      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17196,12 +18280,12 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17235,12 +18319,12 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17274,12 +18358,12 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17313,12 +18397,12 @@
         <v>-30748581.14885579</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17352,12 +18436,12 @@
         <v>-30748581.14885579</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17391,12 +18475,12 @@
         <v>-30863346.14885579</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17430,12 +18514,12 @@
         <v>-30862235.14885579</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17469,12 +18553,12 @@
         <v>-30860615.14885579</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>2.958</v>
+      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17508,12 +18592,12 @@
         <v>-30857204.14885579</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>2.959</v>
+      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17547,12 +18631,12 @@
         <v>-30857804.14885579</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,9 +18675,7 @@
       <c r="I501" t="n">
         <v>2.959</v>
       </c>
-      <c r="J501" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17632,9 +18714,7 @@
       <c r="I502" t="n">
         <v>2.96</v>
       </c>
-      <c r="J502" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17673,9 +18753,7 @@
       <c r="I503" t="n">
         <v>2.961</v>
       </c>
-      <c r="J503" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17714,9 +18792,7 @@
       <c r="I504" t="n">
         <v>2.963</v>
       </c>
-      <c r="J504" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,9 +18831,7 @@
       <c r="I505" t="n">
         <v>2.963</v>
       </c>
-      <c r="J505" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17791,12 +18865,12 @@
         <v>-30832529.05025579</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17830,12 +18904,12 @@
         <v>-30731418.05025579</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17869,12 +18943,12 @@
         <v>-30730307.05025579</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17908,12 +18982,12 @@
         <v>-30730307.05025579</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17947,12 +19021,12 @@
         <v>-30890901.08085579</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>2.971</v>
+      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,12 +19060,12 @@
         <v>-31694802.45635579</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18025,12 +19099,12 @@
         <v>-31689091.45635579</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18064,12 +19138,12 @@
         <v>-31689391.45635579</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18103,12 +19177,12 @@
         <v>-31689391.45635579</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18142,12 +19216,12 @@
         <v>-31686058.45635579</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>2.961</v>
+      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18181,12 +19255,12 @@
         <v>-31686828.45635579</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>2.972</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18220,12 +19294,12 @@
         <v>-31594085.18085579</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18259,12 +19333,12 @@
         <v>-31623085.18085579</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>2.973</v>
+      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18298,12 +19372,12 @@
         <v>-31623085.18085579</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18337,12 +19411,12 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18376,12 +19450,12 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18415,12 +19489,12 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18454,12 +19528,12 @@
         <v>-31621025.70185579</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,12 +19567,12 @@
         <v>-31880212.62195579</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18532,12 +19606,12 @@
         <v>-31880212.62195579</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18571,12 +19645,12 @@
         <v>-31877990.62195579</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>2.964</v>
+      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18610,12 +19684,12 @@
         <v>-31847990.62195579</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18649,12 +19723,12 @@
         <v>-31807127.08485579</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18688,12 +19762,12 @@
         <v>-32111145.19925579</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>2.967</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18727,20 +19801,16 @@
         <v>-32112345.19925579</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>2.967</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="inlineStr"/>
     </row>
     <row r="531">
@@ -18766,15 +19836,15 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>2.967</v>
+        <v>3.009</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L531" t="n">
@@ -18805,17 +19875,11 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18844,17 +19908,11 @@
         <v>-32114361.9255558</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18886,14 +19944,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18925,14 +19977,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18961,17 +20007,15 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J536" t="n">
-        <v>2.967</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2.98</v>
+      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19000,15 +20044,17 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J537" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L537" t="n">
@@ -19039,11 +20085,13 @@
         <v>-32152217.21465579</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J538" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -19078,11 +20126,13 @@
         <v>-32182217.21465579</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>2.99</v>
+      </c>
       <c r="J539" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -19117,11 +20167,13 @@
         <v>-32180740.21465579</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J540" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -19156,11 +20208,13 @@
         <v>-32167751.7224558</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>2.988</v>
+      </c>
       <c r="J541" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19195,11 +20249,13 @@
         <v>-32166308.7224558</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>2.996</v>
+      </c>
       <c r="J542" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19234,11 +20290,13 @@
         <v>-32166752.7224558</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>2.998</v>
+      </c>
       <c r="J543" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19273,11 +20331,13 @@
         <v>-32698958.1591558</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>2.993</v>
+      </c>
       <c r="J544" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19312,11 +20372,13 @@
         <v>-32024696.1943558</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J545" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19351,11 +20413,13 @@
         <v>-32055844.3627558</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>2.998</v>
+      </c>
       <c r="J546" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19390,11 +20454,13 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J547" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19429,11 +20495,13 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>2.976</v>
+      </c>
       <c r="J548" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19468,11 +20536,13 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>2.976</v>
+      </c>
       <c r="J549" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19507,11 +20577,13 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>2.976</v>
+      </c>
       <c r="J550" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19546,11 +20618,13 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J551" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19585,11 +20659,13 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J552" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19624,11 +20700,13 @@
         <v>-31930839.2811558</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J553" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19663,11 +20741,13 @@
         <v>-31940949.2970558</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>2.99</v>
+      </c>
       <c r="J554" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19702,11 +20782,13 @@
         <v>-31994342.7592558</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J555" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19741,11 +20823,13 @@
         <v>-32017568.9152558</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>2.975</v>
+      </c>
       <c r="J556" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19780,11 +20864,13 @@
         <v>-31992740.7011558</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>2.973</v>
+      </c>
       <c r="J557" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19819,11 +20905,13 @@
         <v>-31992563.7011558</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J558" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19858,11 +20946,13 @@
         <v>-31992563.7011558</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>2.989</v>
+      </c>
       <c r="J559" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19897,11 +20987,13 @@
         <v>-31993413.3394048</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>2.989</v>
+      </c>
       <c r="J560" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19936,11 +21028,13 @@
         <v>-32114356.6722048</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J561" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19975,11 +21069,13 @@
         <v>-32126682.5529048</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>2.975</v>
+      </c>
       <c r="J562" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -20014,11 +21110,13 @@
         <v>-32126505.5529048</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>2.974</v>
+      </c>
       <c r="J563" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -20053,11 +21151,13 @@
         <v>-32126505.5529048</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J564" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -20092,11 +21192,13 @@
         <v>-32112215.86070479</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J565" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -20131,11 +21233,13 @@
         <v>-32538654.30114395</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>2.988</v>
+      </c>
       <c r="J566" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20170,11 +21274,13 @@
         <v>-32538654.30114395</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2.975</v>
+      </c>
       <c r="J567" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20209,11 +21315,13 @@
         <v>-32397991.48634395</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2.975</v>
+      </c>
       <c r="J568" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20252,7 +21360,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20291,7 +21399,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20330,7 +21438,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20365,11 +21473,13 @@
         <v>-32389114.48634395</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>2.982</v>
+      </c>
       <c r="J572" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20404,11 +21514,13 @@
         <v>-32302545.01994395</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>2.987</v>
+      </c>
       <c r="J573" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20447,7 +21559,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20482,11 +21594,13 @@
         <v>-32330499.01994395</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>2.999</v>
+      </c>
       <c r="J575" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20521,11 +21635,13 @@
         <v>-32330322.01994395</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>2.98</v>
+      </c>
       <c r="J576" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20564,7 +21680,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20599,11 +21715,13 @@
         <v>-32681338.97594395</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2.991</v>
+      </c>
       <c r="J578" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20638,11 +21756,13 @@
         <v>-32681338.97594395</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>2.977</v>
+      </c>
       <c r="J579" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20677,11 +21797,13 @@
         <v>-33485240.35154395</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>2.977</v>
+      </c>
       <c r="J580" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20716,11 +21838,13 @@
         <v>-33485063.35154395</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>2.973</v>
+      </c>
       <c r="J581" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20759,7 +21883,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20798,7 +21922,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20837,7 +21961,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20876,7 +22000,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20915,7 +22039,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20954,7 +22078,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>2.967</v>
+        <v>2.98</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
